--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07205133333333333</v>
+        <v>0.07205133333333334</v>
       </c>
       <c r="H2">
         <v>0.216154</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N2">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O2">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P2">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q2">
-        <v>0.09863918798355553</v>
+        <v>0.106983693068</v>
       </c>
       <c r="R2">
-        <v>0.8877526918519998</v>
+        <v>0.962853237612</v>
       </c>
       <c r="S2">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="T2">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07205133333333333</v>
+        <v>0.07205133333333334</v>
       </c>
       <c r="H3">
         <v>0.216154</v>
@@ -623,22 +623,22 @@
         <v>43.148598</v>
       </c>
       <c r="O3">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P3">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q3">
         <v>1.036304672454667</v>
       </c>
       <c r="R3">
-        <v>9.326742052091999</v>
+        <v>9.326742052092001</v>
       </c>
       <c r="S3">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="T3">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07205133333333333</v>
+        <v>0.07205133333333334</v>
       </c>
       <c r="H4">
         <v>0.216154</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N4">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q4">
-        <v>0.4845568169313333</v>
+        <v>0.6234868223095557</v>
       </c>
       <c r="R4">
-        <v>4.361011352382</v>
+        <v>5.611381400786001</v>
       </c>
       <c r="S4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="T4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07205133333333333</v>
+        <v>0.07205133333333334</v>
       </c>
       <c r="H5">
         <v>0.216154</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N5">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q5">
-        <v>0.00422364916</v>
+        <v>0.001836252247111111</v>
       </c>
       <c r="R5">
-        <v>0.03801284243999999</v>
+        <v>0.016526270224</v>
       </c>
       <c r="S5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="T5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
     </row>
   </sheetData>
